--- a/WebProject/database/seeders/data/Thuoc_cap_nhat.xlsx
+++ b/WebProject/database/seeders/data/Thuoc_cap_nhat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Web Project\WebProject\database\seeders\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Zalo Received Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D944ED-84DC-4CFA-94EF-84CB5814CBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBECFC2C-3DB4-4A27-8DEA-D76AA12DC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="137">
   <si>
     <t>Tên thuốc</t>
   </si>
@@ -179,9 +179,6 @@
     <t>Acyclovir Stella</t>
   </si>
   <si>
-    <t xml:space="preserve">Tefosta T300 </t>
-  </si>
-  <si>
     <t>Lamivudine 100 SaVi</t>
   </si>
   <si>
@@ -366,6 +363,87 @@
   </si>
   <si>
     <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>sáng 1v, chiều 1v</t>
+  </si>
+  <si>
+    <t>sáng 1v</t>
+  </si>
+  <si>
+    <t>sáng 2v</t>
+  </si>
+  <si>
+    <t>sáng 1v sau ăn</t>
+  </si>
+  <si>
+    <t>sáng 1v trước ăn</t>
+  </si>
+  <si>
+    <t>sáng 1v, trưa 1v, chiều 1v</t>
+  </si>
+  <si>
+    <t>sáng 1 ống, chiều 1 ống</t>
+  </si>
+  <si>
+    <t>tối 1v cùng bữa ăn</t>
+  </si>
+  <si>
+    <t>tối 1v</t>
+  </si>
+  <si>
+    <t>sáng 1 gói, chiều 1 gói, sau ăn</t>
+  </si>
+  <si>
+    <t>tối 1v, trước khi ngủ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sáng 1v, xa bữa ăn </t>
+  </si>
+  <si>
+    <t>sáng 1 gói, trưa 1 gói, chiều 1 gói</t>
+  </si>
+  <si>
+    <t>sáng hoặc trước khi ngủ: 1 gói pha với 15-30ml nước</t>
+  </si>
+  <si>
+    <t>sáng 1v, trưa 1v, chiều 1v sau ăn</t>
+  </si>
+  <si>
+    <t>sáng 1v, tối 1v trước ăn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sáng 1v, trưa 1v, chiều 1v </t>
+  </si>
+  <si>
+    <t>tối 1v trước khi ngủ</t>
+  </si>
+  <si>
+    <t>sáng 1v, chiều 1v sau ăn</t>
+  </si>
+  <si>
+    <t>sáng 1v, tối 1v sau ăn</t>
+  </si>
+  <si>
+    <t>sáng 1v, tối 1v</t>
+  </si>
+  <si>
+    <t>sáng 1v, tối 1v, trong bữa ăn</t>
+  </si>
+  <si>
+    <t>sáng 1v, chiều 1vư</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tefostad T300 </t>
+  </si>
+  <si>
+    <t>tra mắt 3 lần/ngày</t>
+  </si>
+  <si>
+    <t>nhỏ mắt 3 lần/ngày</t>
+  </si>
+  <si>
+    <t>thoa 1 lớp mỏng 3 lần/ngày</t>
   </si>
 </sst>
 </file>
@@ -750,17 +828,17 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,62 +852,71 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2">
         <v>800</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(1000,10000)</f>
-        <v>4450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6417</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3">
         <f ca="1">ROUND(RANDBETWEEN(500,1000),-2)</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="D3">
         <f ca="1">RANDBETWEEN(1000,10000)</f>
-        <v>5433</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1465</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C67" ca="1" si="0">ROUND(RANDBETWEEN(500,1000),-2)</f>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D65" ca="1" si="1">RANDBETWEEN(1000,10000)</f>
-        <v>4458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7991</v>
+      </c>
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
@@ -837,111 +924,132 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7924</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>7132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7386</v>
+      </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>6391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8121</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>8602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5933</v>
+      </c>
+      <c r="E8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>9534</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7870</v>
+      </c>
+      <c r="E9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>7266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4638</v>
+      </c>
+      <c r="E10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>7120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8832</v>
+      </c>
+      <c r="E11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
@@ -949,223 +1057,265 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>6312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2344</v>
+      </c>
+      <c r="E12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>7294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2823</v>
+      </c>
+      <c r="E13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>5180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6568</v>
+      </c>
+      <c r="E14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>9190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9744</v>
+      </c>
+      <c r="E15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>5830</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9731</v>
+      </c>
+      <c r="E16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>7846</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5354</v>
+      </c>
+      <c r="E17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>9650</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2896</v>
+      </c>
+      <c r="E18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>8609</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4275</v>
+      </c>
+      <c r="E19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>7092</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1769</v>
+      </c>
+      <c r="E20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>3271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6752</v>
+      </c>
+      <c r="E21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>6765</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6631</v>
+      </c>
+      <c r="E22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7191</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>8925</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1368</v>
+      </c>
+      <c r="E24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>6436</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2345</v>
+      </c>
+      <c r="E25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
@@ -1173,110 +1323,128 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>6804</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1040</v>
+      </c>
+      <c r="E26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27">
         <v>70000</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>4995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2448</v>
+      </c>
+      <c r="E27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>4664</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9686</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6680</v>
+      </c>
+      <c r="E29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>4362</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6912</v>
+      </c>
+      <c r="E30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>8553</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2254</v>
+      </c>
+      <c r="E31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>3935</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5258</v>
+      </c>
+      <c r="E32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
@@ -1284,140 +1452,167 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>9982</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7796</v>
+      </c>
+      <c r="E33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>7564</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2566</v>
+      </c>
+      <c r="E34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>6179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1642</v>
+      </c>
+      <c r="E35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C36">
         <v>30000</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>6047</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8699</v>
+      </c>
+      <c r="E36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C37">
         <v>40000</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>8625</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1653</v>
+      </c>
+      <c r="E37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>9097</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2280</v>
+      </c>
+      <c r="E38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39">
         <v>20000</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>8659</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3334</v>
+      </c>
+      <c r="E39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>4008</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6825</v>
+      </c>
+      <c r="E40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>2466</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3584</v>
+      </c>
+      <c r="E41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
@@ -1425,948 +1620,1128 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>4211</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6819</v>
+      </c>
+      <c r="E42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>4380</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4613</v>
+      </c>
+      <c r="E43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C44">
         <v>15000</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>6785</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8950</v>
+      </c>
+      <c r="E44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="1"/>
+        <v>1059</v>
+      </c>
+      <c r="E45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="1"/>
+        <v>3308</v>
+      </c>
+      <c r="E46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="1"/>
+        <v>6036</v>
+      </c>
+      <c r="E47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="1"/>
+        <v>1224</v>
+      </c>
+      <c r="E48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="0"/>
         <v>900</v>
       </c>
-      <c r="D45">
-        <f t="shared" ca="1" si="1"/>
-        <v>2478</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46">
+      <c r="D49">
+        <f t="shared" ca="1" si="1"/>
+        <v>6184</v>
+      </c>
+      <c r="E49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50">
         <f t="shared" ca="1" si="0"/>
         <v>700</v>
       </c>
-      <c r="D46">
-        <f t="shared" ca="1" si="1"/>
-        <v>4775</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47">
+      <c r="D50">
+        <f t="shared" ca="1" si="1"/>
+        <v>3126</v>
+      </c>
+      <c r="E50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="1"/>
+        <v>4714</v>
+      </c>
+      <c r="E51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="1"/>
+        <v>1829</v>
+      </c>
+      <c r="E52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53">
         <f t="shared" ca="1" si="0"/>
         <v>900</v>
       </c>
-      <c r="D47">
-        <f t="shared" ca="1" si="1"/>
-        <v>9959</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48">
+      <c r="D53">
+        <f t="shared" ca="1" si="1"/>
+        <v>5974</v>
+      </c>
+      <c r="E53" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="1"/>
+        <v>9139</v>
+      </c>
+      <c r="E54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55">
         <f t="shared" ca="1" si="0"/>
         <v>600</v>
       </c>
-      <c r="D48">
-        <f t="shared" ca="1" si="1"/>
-        <v>9333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49">
-        <f t="shared" ca="1" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="D49">
-        <f t="shared" ca="1" si="1"/>
-        <v>4610</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50">
-        <f t="shared" ca="1" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="D50">
-        <f t="shared" ca="1" si="1"/>
-        <v>3511</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51">
-        <f t="shared" ca="1" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="D51">
-        <f t="shared" ca="1" si="1"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52">
+      <c r="D55">
+        <f t="shared" ca="1" si="1"/>
+        <v>9414</v>
+      </c>
+      <c r="E55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="1"/>
+        <v>2654</v>
+      </c>
+      <c r="E56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="1"/>
+        <v>4893</v>
+      </c>
+      <c r="E57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58">
         <f t="shared" ca="1" si="0"/>
         <v>600</v>
       </c>
-      <c r="D52">
-        <f t="shared" ca="1" si="1"/>
-        <v>9337</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53">
-        <f t="shared" ca="1" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="D53">
-        <f t="shared" ca="1" si="1"/>
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54">
-        <f t="shared" ca="1" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="D54">
-        <f t="shared" ca="1" si="1"/>
-        <v>3396</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55">
-        <f t="shared" ca="1" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="D55">
-        <f t="shared" ca="1" si="1"/>
-        <v>5535</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56">
-        <f t="shared" ca="1" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="D56">
-        <f t="shared" ca="1" si="1"/>
-        <v>5447</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57">
-        <f t="shared" ca="1" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="D57">
-        <f t="shared" ca="1" si="1"/>
-        <v>8834</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="D58">
+        <f t="shared" ca="1" si="1"/>
+        <v>7249</v>
+      </c>
+      <c r="E58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>60</v>
       </c>
-      <c r="B58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58">
-        <f t="shared" ca="1" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="D58">
-        <f t="shared" ca="1" si="1"/>
-        <v>2650</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>61</v>
-      </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C59">
         <v>50000</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1027</v>
+      </c>
+      <c r="E59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C60">
         <v>60000</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>7236</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3061</v>
+      </c>
+      <c r="E60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="1"/>
+        <v>5575</v>
+      </c>
+      <c r="E61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>63</v>
       </c>
-      <c r="B61" t="s">
-        <v>104</v>
-      </c>
-      <c r="C61">
-        <f t="shared" ca="1" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="D61">
-        <f t="shared" ca="1" si="1"/>
-        <v>8833</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="B62" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="1"/>
+        <v>9940</v>
+      </c>
+      <c r="E62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>64</v>
       </c>
-      <c r="B62" t="s">
-        <v>104</v>
-      </c>
-      <c r="C62">
+      <c r="B63" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63">
         <f t="shared" ca="1" si="0"/>
         <v>800</v>
       </c>
-      <c r="D62">
-        <f t="shared" ca="1" si="1"/>
-        <v>9415</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="D63">
+        <f t="shared" ca="1" si="1"/>
+        <v>8564</v>
+      </c>
+      <c r="E63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>65</v>
       </c>
-      <c r="B63" t="s">
-        <v>104</v>
-      </c>
-      <c r="C63">
+      <c r="B64" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="1"/>
+        <v>7757</v>
+      </c>
+      <c r="E64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="1"/>
+        <v>4969</v>
+      </c>
+      <c r="E65" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66">
         <f t="shared" ca="1" si="0"/>
         <v>1000</v>
-      </c>
-      <c r="D63">
-        <f t="shared" ca="1" si="1"/>
-        <v>8264</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" t="s">
-        <v>104</v>
-      </c>
-      <c r="C64">
-        <f t="shared" ca="1" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="D64">
-        <f t="shared" ca="1" si="1"/>
-        <v>5290</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" t="s">
-        <v>104</v>
-      </c>
-      <c r="C65">
-        <f t="shared" ca="1" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="D65">
-        <f t="shared" ca="1" si="1"/>
-        <v>3819</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" t="s">
-        <v>104</v>
-      </c>
-      <c r="C66">
-        <f t="shared" ca="1" si="0"/>
-        <v>800</v>
       </c>
       <c r="D66">
         <f t="shared" ref="D66:D101" ca="1" si="2">RANDBETWEEN(1000,10000)</f>
-        <v>9439</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6114</v>
+      </c>
+      <c r="E66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="2"/>
+        <v>1807</v>
+      </c>
+      <c r="E67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>69</v>
       </c>
-      <c r="B67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C67">
-        <f t="shared" ca="1" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ca="1" si="2"/>
-        <v>3403</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>70</v>
-      </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C68">
         <f t="shared" ref="C68:C101" ca="1" si="3">ROUND(RANDBETWEEN(500,1000),-2)</f>
+        <v>900</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="2"/>
+        <v>8244</v>
+      </c>
+      <c r="E68" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="2"/>
+        <v>3947</v>
+      </c>
+      <c r="E69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="2"/>
+        <v>7243</v>
+      </c>
+      <c r="E70" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="2"/>
+        <v>9506</v>
+      </c>
+      <c r="E71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="2"/>
+        <v>3187</v>
+      </c>
+      <c r="E72" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="3"/>
         <v>600</v>
       </c>
-      <c r="D68">
-        <f t="shared" ca="1" si="2"/>
-        <v>8378</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" t="s">
-        <v>104</v>
-      </c>
-      <c r="C69">
+      <c r="D73">
+        <f t="shared" ca="1" si="2"/>
+        <v>2289</v>
+      </c>
+      <c r="E73" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="2"/>
+        <v>3501</v>
+      </c>
+      <c r="E74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>103</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="2"/>
+        <v>6860</v>
+      </c>
+      <c r="E75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="2"/>
+        <v>1460</v>
+      </c>
+      <c r="E76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="2"/>
+        <v>9093</v>
+      </c>
+      <c r="E77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
         <f t="shared" ca="1" si="3"/>
         <v>600</v>
       </c>
-      <c r="D69">
-        <f t="shared" ca="1" si="2"/>
-        <v>2937</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" t="s">
-        <v>104</v>
-      </c>
-      <c r="C70">
+      <c r="D78">
+        <f t="shared" ca="1" si="2"/>
+        <v>1976</v>
+      </c>
+      <c r="E78" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="2"/>
+        <v>6426</v>
+      </c>
+      <c r="E79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="2"/>
+        <v>1156</v>
+      </c>
+      <c r="E80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="2"/>
+        <v>4699</v>
+      </c>
+      <c r="E81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="2"/>
+        <v>4516</v>
+      </c>
+      <c r="E82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="2"/>
+        <v>5866</v>
+      </c>
+      <c r="E83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>108</v>
+      </c>
+      <c r="C84">
         <f t="shared" ca="1" si="3"/>
         <v>800</v>
       </c>
-      <c r="D70">
-        <f t="shared" ca="1" si="2"/>
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C71">
+      <c r="D84">
+        <f t="shared" ca="1" si="2"/>
+        <v>6135</v>
+      </c>
+      <c r="E84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85">
         <f t="shared" ca="1" si="3"/>
         <v>900</v>
       </c>
-      <c r="D71">
-        <f t="shared" ca="1" si="2"/>
-        <v>6461</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" t="s">
-        <v>104</v>
-      </c>
-      <c r="C72">
+      <c r="D85">
+        <f t="shared" ca="1" si="2"/>
+        <v>7653</v>
+      </c>
+      <c r="E85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86">
         <f t="shared" ca="1" si="3"/>
         <v>700</v>
       </c>
-      <c r="D72">
-        <f t="shared" ca="1" si="2"/>
-        <v>3262</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" t="s">
-        <v>104</v>
-      </c>
-      <c r="C73">
+      <c r="D86">
+        <f t="shared" ca="1" si="2"/>
+        <v>3714</v>
+      </c>
+      <c r="E86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>103</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="2"/>
+        <v>7665</v>
+      </c>
+      <c r="E87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>103</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ca="1" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="2"/>
+        <v>8305</v>
+      </c>
+      <c r="E88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="2"/>
+        <v>4615</v>
+      </c>
+      <c r="E89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="2"/>
+        <v>7903</v>
+      </c>
+      <c r="E90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="2"/>
+        <v>7216</v>
+      </c>
+      <c r="E91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92">
         <f t="shared" ca="1" si="3"/>
         <v>900</v>
       </c>
-      <c r="D73">
-        <f t="shared" ca="1" si="2"/>
-        <v>2945</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" t="s">
-        <v>104</v>
-      </c>
-      <c r="C74">
+      <c r="D92">
+        <f t="shared" ca="1" si="2"/>
+        <v>1498</v>
+      </c>
+      <c r="E92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="2"/>
+        <v>8288</v>
+      </c>
+      <c r="E93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="2"/>
+        <v>1732</v>
+      </c>
+      <c r="E94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="2"/>
+        <v>3088</v>
+      </c>
+      <c r="E95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="2"/>
+        <v>8424</v>
+      </c>
+      <c r="E96" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97">
         <f t="shared" ca="1" si="3"/>
         <v>800</v>
       </c>
-      <c r="D74">
-        <f t="shared" ca="1" si="2"/>
-        <v>8323</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" t="s">
-        <v>104</v>
-      </c>
-      <c r="C75">
+      <c r="D97">
+        <f t="shared" ca="1" si="2"/>
+        <v>9649</v>
+      </c>
+      <c r="E97" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="2"/>
+        <v>4895</v>
+      </c>
+      <c r="E98" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="2"/>
+        <v>3356</v>
+      </c>
+      <c r="E99" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="2"/>
+        <v>4007</v>
+      </c>
+      <c r="E100" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101">
         <f t="shared" ca="1" si="3"/>
         <v>500</v>
       </c>
-      <c r="D75">
-        <f t="shared" ca="1" si="2"/>
-        <v>4113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" t="s">
-        <v>104</v>
-      </c>
-      <c r="C76">
-        <f t="shared" ca="1" si="3"/>
-        <v>900</v>
-      </c>
-      <c r="D76">
-        <f t="shared" ca="1" si="2"/>
-        <v>6473</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" t="s">
-        <v>104</v>
-      </c>
-      <c r="C77">
-        <f t="shared" ca="1" si="3"/>
-        <v>700</v>
-      </c>
-      <c r="D77">
-        <f t="shared" ca="1" si="2"/>
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" t="s">
-        <v>104</v>
-      </c>
-      <c r="C78">
-        <f t="shared" ca="1" si="3"/>
-        <v>700</v>
-      </c>
-      <c r="D78">
-        <f t="shared" ca="1" si="2"/>
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" t="s">
-        <v>104</v>
-      </c>
-      <c r="C79">
-        <f t="shared" ca="1" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="D79">
-        <f t="shared" ca="1" si="2"/>
-        <v>9142</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" t="s">
-        <v>104</v>
-      </c>
-      <c r="C80">
-        <f t="shared" ca="1" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="D80">
-        <f t="shared" ca="1" si="2"/>
-        <v>2363</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" t="s">
-        <v>104</v>
-      </c>
-      <c r="C81">
-        <f t="shared" ca="1" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="D81">
-        <f t="shared" ca="1" si="2"/>
-        <v>7267</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" t="s">
-        <v>109</v>
-      </c>
-      <c r="C82">
-        <f t="shared" ca="1" si="3"/>
-        <v>800</v>
-      </c>
-      <c r="D82">
-        <f t="shared" ca="1" si="2"/>
-        <v>5703</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" t="s">
-        <v>109</v>
-      </c>
-      <c r="C83">
-        <f t="shared" ca="1" si="3"/>
-        <v>800</v>
-      </c>
-      <c r="D83">
-        <f t="shared" ca="1" si="2"/>
-        <v>2215</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" t="s">
-        <v>109</v>
-      </c>
-      <c r="C84">
-        <f t="shared" ca="1" si="3"/>
-        <v>800</v>
-      </c>
-      <c r="D84">
-        <f t="shared" ca="1" si="2"/>
-        <v>7215</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" t="s">
-        <v>104</v>
-      </c>
-      <c r="C85">
-        <f t="shared" ca="1" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="D85">
-        <f t="shared" ca="1" si="2"/>
-        <v>6686</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" t="s">
-        <v>104</v>
-      </c>
-      <c r="C86">
-        <f t="shared" ca="1" si="3"/>
-        <v>900</v>
-      </c>
-      <c r="D86">
-        <f t="shared" ca="1" si="2"/>
-        <v>4498</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" t="s">
-        <v>104</v>
-      </c>
-      <c r="C87">
-        <f t="shared" ca="1" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="D87">
-        <f t="shared" ca="1" si="2"/>
-        <v>4169</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" t="s">
-        <v>104</v>
-      </c>
-      <c r="C88">
-        <f t="shared" ca="1" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="D88">
-        <f t="shared" ca="1" si="2"/>
-        <v>7095</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" t="s">
-        <v>109</v>
-      </c>
-      <c r="C89">
-        <f t="shared" ca="1" si="3"/>
-        <v>700</v>
-      </c>
-      <c r="D89">
-        <f t="shared" ca="1" si="2"/>
-        <v>6248</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" t="s">
-        <v>104</v>
-      </c>
-      <c r="C90">
-        <f t="shared" ca="1" si="3"/>
-        <v>700</v>
-      </c>
-      <c r="D90">
-        <f t="shared" ca="1" si="2"/>
-        <v>5045</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" t="s">
-        <v>104</v>
-      </c>
-      <c r="C91">
-        <f t="shared" ca="1" si="3"/>
-        <v>800</v>
-      </c>
-      <c r="D91">
-        <f t="shared" ca="1" si="2"/>
-        <v>3239</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92" t="s">
-        <v>109</v>
-      </c>
-      <c r="C92">
-        <f t="shared" ca="1" si="3"/>
-        <v>900</v>
-      </c>
-      <c r="D92">
-        <f t="shared" ca="1" si="2"/>
-        <v>9142</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93" t="s">
-        <v>109</v>
-      </c>
-      <c r="C93">
-        <f t="shared" ca="1" si="3"/>
-        <v>800</v>
-      </c>
-      <c r="D93">
-        <f t="shared" ca="1" si="2"/>
-        <v>8191</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" t="s">
-        <v>109</v>
-      </c>
-      <c r="C94">
-        <f t="shared" ca="1" si="3"/>
-        <v>800</v>
-      </c>
-      <c r="D94">
-        <f t="shared" ca="1" si="2"/>
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" t="s">
-        <v>109</v>
-      </c>
-      <c r="C95">
-        <f t="shared" ca="1" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="D95">
-        <f t="shared" ca="1" si="2"/>
-        <v>3744</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" t="s">
-        <v>104</v>
-      </c>
-      <c r="C96">
-        <f t="shared" ca="1" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="D96">
-        <f t="shared" ca="1" si="2"/>
-        <v>4881</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C97">
-        <f t="shared" ca="1" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="D97">
-        <f t="shared" ca="1" si="2"/>
-        <v>6907</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" t="s">
-        <v>104</v>
-      </c>
-      <c r="C98">
-        <f t="shared" ca="1" si="3"/>
-        <v>900</v>
-      </c>
-      <c r="D98">
-        <f t="shared" ca="1" si="2"/>
-        <v>4444</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99" t="s">
-        <v>104</v>
-      </c>
-      <c r="C99">
-        <f t="shared" ca="1" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="D99">
-        <f t="shared" ca="1" si="2"/>
-        <v>4037</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" t="s">
-        <v>104</v>
-      </c>
-      <c r="C100">
-        <f t="shared" ca="1" si="3"/>
-        <v>900</v>
-      </c>
-      <c r="D100">
-        <f t="shared" ca="1" si="2"/>
-        <v>2853</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101" t="s">
-        <v>104</v>
-      </c>
-      <c r="C101">
-        <f t="shared" ca="1" si="3"/>
-        <v>700</v>
-      </c>
       <c r="D101">
         <f t="shared" ca="1" si="2"/>
-        <v>4514</v>
+        <v>8686</v>
+      </c>
+      <c r="E101" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
